--- a/Session4/S4.xlsx
+++ b/Session4/S4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EVA\EVA7\Session4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219CA893-DDB9-4994-83FD-6C1F70F2540E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61D7D8E-4E02-45BA-8BE6-899048A76339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{CBCF7DDA-0254-481F-8F13-54180237FBFA}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>h1 = w1*i1 + w2*i2</t>
   </si>
@@ -207,12 +207,30 @@
   <si>
     <t>lr = 0.1</t>
   </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>lr = 0.2</t>
+  </si>
+  <si>
+    <t>lr = 0.5</t>
+  </si>
+  <si>
+    <t>lr = 0.8</t>
+  </si>
+  <si>
+    <t>lr = 1.0</t>
+  </si>
+  <si>
+    <t>lr = 2.0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +281,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -334,14 +358,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.41504855643044625"/>
-          <c:y val="4.6296296296296294E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -373,17 +389,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.8398950131233592E-2"/>
-          <c:y val="0.18097222222222226"/>
-          <c:w val="0.88252952755905512"/>
-          <c:h val="0.72088764946048411"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -402,140 +408,278 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$W$33:$W$75</c:f>
+              <c:f>Sheet1!$A$81:$A$123</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>0.24251985734837728</c:v>
+                  <c:v>0.24251985700000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24110907286114908</c:v>
+                  <c:v>0.24110907300000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23970408870152754</c:v>
+                  <c:v>0.23970408900000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23830495005698166</c:v>
+                  <c:v>0.23830494999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23691170128381023</c:v>
+                  <c:v>0.236911701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23552438588641478</c:v>
+                  <c:v>0.235524386</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23414304649729881</c:v>
+                  <c:v>0.23414304599999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23276772485780714</c:v>
+                  <c:v>0.23276772500000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2313984617996222</c:v>
+                  <c:v>0.231398462</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23003529722703114</c:v>
+                  <c:v>0.230035297</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.22867827009997693</c:v>
+                  <c:v>0.22867826999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.22732741841790352</c:v>
+                  <c:v>0.227327418</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.22598277920440693</c:v>
+                  <c:v>0.22598277899999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2246443884927003</c:v>
+                  <c:v>0.224644388</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.22331228131190017</c:v>
+                  <c:v>0.223312281</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2219864916741402</c:v>
+                  <c:v>0.22198649200000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.22066705256251892</c:v>
+                  <c:v>0.220667053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.21935399591988231</c:v>
+                  <c:v>0.219353996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.21804735263844602</c:v>
+                  <c:v>0.218047353</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2167471525502575</c:v>
+                  <c:v>0.216747153</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.21545342441849755</c:v>
+                  <c:v>0.215453424</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.2141661959296213</c:v>
+                  <c:v>0.214166196</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2128854936863345</c:v>
+                  <c:v>0.21288549400000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.21161134320140304</c:v>
+                  <c:v>0.21161134300000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.21034376889229078</c:v>
+                  <c:v>0.21034376900000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.20908279407661828</c:v>
+                  <c:v>0.20908279399999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.20782844096843878</c:v>
+                  <c:v>0.207828441</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.20658073067532001</c:v>
+                  <c:v>0.20658073099999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.20533968319622586</c:v>
+                  <c:v>0.205339683</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.20410531742018653</c:v>
+                  <c:v>0.20410531700000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.20287765112574724</c:v>
+                  <c:v>0.20287765099999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.20165670098118371</c:v>
+                  <c:v>0.20165670099999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.20044248254547198</c:v>
+                  <c:v>0.200442483</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.1992350102699994</c:v>
+                  <c:v>0.19923500999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.19803429750100335</c:v>
+                  <c:v>0.198034298</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.19684035648272269</c:v>
+                  <c:v>0.19684035599999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.19565319836124662</c:v>
+                  <c:v>0.195653198</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.19447283318904499</c:v>
+                  <c:v>0.19447283300000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.1932992699301648</c:v>
+                  <c:v>0.19329927</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.19213251646607377</c:v>
+                  <c:v>0.192132516</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.19097257960213573</c:v>
+                  <c:v>0.19097258</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.18981946507469827</c:v>
+                  <c:v>0.18981946499999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.18867317755877516</c:v>
+                  <c:v>0.188673178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$81:$B$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.24251985700000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.239701206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23690592199999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23413435899999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.231386856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22866374</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22596532</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22329188999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22064373100000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21802110299999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.21542425300000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21285340899999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.210308782</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.20779056500000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20529893599999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20283405099999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.20039605199999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.19798505999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19560118100000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19324450300000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.19091509400000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.188613008</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.18633828</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.18409092799999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.181870954</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.17967834499999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.17751307099999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.17537508600000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.17326433099999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.17118073</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.169124195</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.167094623</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.16509189899999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.16311589400000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.16116646900000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.159243471</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.15734673699999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.15547609400000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.153631358</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.15181233699999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.15001882899999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.148250623</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.14650750200000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -543,7 +687,1199 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2804-4772-B3B6-6BFED5C538C4}"/>
+              <c16:uniqueId val="{00000000-9F2C-4C48-AF42-F7D411D36AB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$81:$A$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.24251985700000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24110907300000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23970408900000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23830494999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.236911701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.235524386</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23414304599999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23276772500000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.231398462</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.230035297</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22867826999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.227327418</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22598277899999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.224644388</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.223312281</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22198649200000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.220667053</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.219353996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.218047353</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.216747153</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.215453424</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.214166196</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.21288549400000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.21161134300000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.21034376900000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20908279399999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.207828441</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.20658073099999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.205339683</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.20410531700000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.20287765099999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.20165670099999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.200442483</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.19923500999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.198034298</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.19684035599999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.195653198</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.19447283300000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19329927</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.192132516</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.19097258</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.18981946499999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.188673178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$81:$C$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.24251985700000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.235495491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22862020599999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22189913</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.215336797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20893709599999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.202703249</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19663778000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.190742519</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.185018604</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.179466496</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17408600900000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16887634400000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.163836129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.158963467</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15425598300000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.14971087899999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14532498699999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.14109481500000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13701660700000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.133086383</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.129299989</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.125653139</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.12214145699999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.118760506</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.11550582500000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.112372956</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.10935747</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.106454985</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.103661188</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.100971847</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.8382826000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.5890093999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.3489734000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.1177947999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.8951059999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.6805523999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.4737917999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.2744950999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.0823459E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.8970404999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.7182874999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.5458080999999996E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9F2C-4C48-AF42-F7D411D36AB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$81:$A$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.24251985700000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24110907300000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23970408900000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23830494999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.236911701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.235524386</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23414304599999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23276772500000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.231398462</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.230035297</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22867826999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.227327418</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22598277899999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.224644388</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.223312281</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22198649200000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.220667053</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.219353996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.218047353</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.216747153</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.215453424</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.214166196</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.21288549400000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.21161134300000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.21034376900000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20908279399999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.207828441</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.20658073099999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.205339683</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.20410531700000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.20287765099999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.20165670099999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.200442483</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.19923500999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.198034298</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.19684035599999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.195653198</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.19447283300000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19329927</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.192132516</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.19097258</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.18981946499999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.188673178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$81:$D$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.24251985700000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23131739900000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22050403399999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.210099015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.200117407</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19056978299999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.181462135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17279598900000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16456868799999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15677380399999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14940163400000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.142439748</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13587354300000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12968677300000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.123862049</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.118381281</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.11322605600000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.108377957</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.103818825</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.9530955000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5497257000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1701353999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.8127663999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.4761436999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.1588779E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.8596645000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.5772829E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.3105940999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.0585368999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.8201247000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.5944410999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.3806359000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.1779211000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.9855661999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.8028945999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.6292796999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.4641410000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.3069407999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.1571810000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.0143997000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.8781686999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.7480908000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.6237974000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9F2C-4C48-AF42-F7D411D36AB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$81:$A$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.24251985700000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24110907300000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23970408900000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23830494999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.236911701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.235524386</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23414304599999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23276772500000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.231398462</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.230035297</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22867826999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.227327418</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22598277899999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.224644388</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.223312281</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22198649200000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.220667053</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.219353996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.218047353</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.216747153</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.215453424</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.214166196</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.21288549400000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.21161134300000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.21034376900000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20908279399999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.207828441</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.20658073099999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.205339683</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.20410531700000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.20287765099999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.20165670099999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.200442483</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.19923500999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.198034298</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.19684035599999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.195653198</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.19447283300000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19329927</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.192132516</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.19097258</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.18981946499999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.188673178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$81:$E$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.24251985700000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22854785</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.215191257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20248527999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.190454547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17911252699999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.168461733</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15849458499999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14919475500000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14053877400000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13249773400000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.125038919</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.118127289</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.111726731</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.105801087</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.100314933</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.5234156E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.0526348000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.6161041999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.2109847E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.8346474999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.4846722000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.1588387000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.8551179000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.5716589000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.3067767999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0589394999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.8267547000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.6089579000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.4044004999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.2120392000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.0309255999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.8601976999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.6990707999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.5468304000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.4028253000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.2664611999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.1371954000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.0145315000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.8980154000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.7872307000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.6817954E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.5813589E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9F2C-4C48-AF42-F7D411D36AB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$81:$A$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.24251985700000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24110907300000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23970408900000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23830494999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.236911701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.235524386</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23414304599999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23276772500000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.231398462</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.230035297</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22867826999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.227327418</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22598277899999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.224644388</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.223312281</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22198649200000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.220667053</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.219353996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.218047353</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.216747153</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.215453424</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.214166196</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.21288549400000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.21161134300000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.21034376900000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20908279399999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.207828441</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.20658073099999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.205339683</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.20410531700000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.20287765099999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.20165670099999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.200442483</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.19923500999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.198034298</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.19684035599999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.195653198</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.19447283300000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19329927</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.192132516</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.19097258</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.18981946499999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.188673178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$81:$F$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.24251985700000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.214901218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18987770500000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16762716499999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14815189200000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13130535600000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.116842979</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.104474397</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3903806000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.4854976999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7083396999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0379759E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.4568547000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.9504343000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5067416000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1159411000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7699503999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4621133E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1869297999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9398365999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.7170306E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.5153263999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.3320435000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1649147000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.0120135999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.8716950000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.7425478E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6233560999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5130679E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4107692E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.3156626E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2270499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.1443180999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0669257999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9943948E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.9263004E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8622646999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8019502E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7450549999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.691308E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6404653000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.5923070000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5466341999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9F2C-4C48-AF42-F7D411D36AB6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -556,11 +1892,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="415935256"/>
-        <c:axId val="415935912"/>
+        <c:axId val="515010488"/>
+        <c:axId val="515006880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="415935256"/>
+        <c:axId val="515010488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,7 +1939,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415935912"/>
+        <c:crossAx val="515006880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -611,7 +1947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="415935912"/>
+        <c:axId val="515006880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,7 +1998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415935256"/>
+        <c:crossAx val="515010488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -674,6 +2010,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1315,23 +2682,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>270164</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>602671</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>117763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>574964</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>332508</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>27708</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E7C35B6-F1D3-4AFE-AB08-3D39AD650603}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FF8A60B-4B3F-41BE-8088-8F6168C47247}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1649,10 +3016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A94540-6473-4637-BF53-527E18A978DE}">
-  <dimension ref="A2:AE79"/>
+  <dimension ref="A2:AE123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AD25" sqref="AD25"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W93" sqref="W93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7357,8 +8724,904 @@
       <c r="A79" t="s">
         <v>57</v>
       </c>
+      <c r="B79" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" t="s">
+        <v>61</v>
+      </c>
+      <c r="E79" t="s">
+        <v>62</v>
+      </c>
+      <c r="F79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80" t="s">
+        <v>58</v>
+      </c>
+      <c r="E80" t="s">
+        <v>58</v>
+      </c>
+      <c r="F80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>0.24251985700000001</v>
+      </c>
+      <c r="B81">
+        <v>0.24251985700000001</v>
+      </c>
+      <c r="C81">
+        <v>0.24251985700000001</v>
+      </c>
+      <c r="D81">
+        <v>0.24251985700000001</v>
+      </c>
+      <c r="E81">
+        <v>0.24251985700000001</v>
+      </c>
+      <c r="F81">
+        <v>0.24251985700000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>0.24110907300000001</v>
+      </c>
+      <c r="B82">
+        <v>0.239701206</v>
+      </c>
+      <c r="C82">
+        <v>0.235495491</v>
+      </c>
+      <c r="D82">
+        <v>0.23131739900000001</v>
+      </c>
+      <c r="E82">
+        <v>0.22854785</v>
+      </c>
+      <c r="F82">
+        <v>0.214901218</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>0.23970408900000001</v>
+      </c>
+      <c r="B83">
+        <v>0.23690592199999999</v>
+      </c>
+      <c r="C83">
+        <v>0.22862020599999999</v>
+      </c>
+      <c r="D83">
+        <v>0.22050403399999999</v>
+      </c>
+      <c r="E83">
+        <v>0.215191257</v>
+      </c>
+      <c r="F83">
+        <v>0.18987770500000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>0.23830494999999999</v>
+      </c>
+      <c r="B84">
+        <v>0.23413435899999999</v>
+      </c>
+      <c r="C84">
+        <v>0.22189913</v>
+      </c>
+      <c r="D84">
+        <v>0.210099015</v>
+      </c>
+      <c r="E84">
+        <v>0.20248527999999999</v>
+      </c>
+      <c r="F84">
+        <v>0.16762716499999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>0.236911701</v>
+      </c>
+      <c r="B85">
+        <v>0.231386856</v>
+      </c>
+      <c r="C85">
+        <v>0.215336797</v>
+      </c>
+      <c r="D85">
+        <v>0.200117407</v>
+      </c>
+      <c r="E85">
+        <v>0.190454547</v>
+      </c>
+      <c r="F85">
+        <v>0.14815189200000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>0.235524386</v>
+      </c>
+      <c r="B86">
+        <v>0.22866374</v>
+      </c>
+      <c r="C86">
+        <v>0.20893709599999999</v>
+      </c>
+      <c r="D86">
+        <v>0.19056978299999999</v>
+      </c>
+      <c r="E86">
+        <v>0.17911252699999999</v>
+      </c>
+      <c r="F86">
+        <v>0.13130535600000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>0.23414304599999999</v>
+      </c>
+      <c r="B87">
+        <v>0.22596532</v>
+      </c>
+      <c r="C87">
+        <v>0.202703249</v>
+      </c>
+      <c r="D87">
+        <v>0.181462135</v>
+      </c>
+      <c r="E87">
+        <v>0.168461733</v>
+      </c>
+      <c r="F87">
+        <v>0.116842979</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>0.23276772500000001</v>
+      </c>
+      <c r="B88">
+        <v>0.22329188999999999</v>
+      </c>
+      <c r="C88">
+        <v>0.19663778000000001</v>
+      </c>
+      <c r="D88">
+        <v>0.17279598900000001</v>
+      </c>
+      <c r="E88">
+        <v>0.15849458499999999</v>
+      </c>
+      <c r="F88">
+        <v>0.104474397</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>0.231398462</v>
+      </c>
+      <c r="B89">
+        <v>0.22064373100000001</v>
+      </c>
+      <c r="C89">
+        <v>0.190742519</v>
+      </c>
+      <c r="D89">
+        <v>0.16456868799999999</v>
+      </c>
+      <c r="E89">
+        <v>0.14919475500000001</v>
+      </c>
+      <c r="F89">
+        <v>9.3903806000000006E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>0.230035297</v>
+      </c>
+      <c r="B90">
+        <v>0.21802110299999999</v>
+      </c>
+      <c r="C90">
+        <v>0.185018604</v>
+      </c>
+      <c r="D90">
+        <v>0.15677380399999999</v>
+      </c>
+      <c r="E90">
+        <v>0.14053877400000001</v>
+      </c>
+      <c r="F90">
+        <v>8.4854976999999998E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>0.22867826999999999</v>
+      </c>
+      <c r="B91">
+        <v>0.21542425300000001</v>
+      </c>
+      <c r="C91">
+        <v>0.179466496</v>
+      </c>
+      <c r="D91">
+        <v>0.14940163400000001</v>
+      </c>
+      <c r="E91">
+        <v>0.13249773400000001</v>
+      </c>
+      <c r="F91">
+        <v>7.7083396999999998E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>0.227327418</v>
+      </c>
+      <c r="B92">
+        <v>0.21285340899999999</v>
+      </c>
+      <c r="C92">
+        <v>0.17408600900000001</v>
+      </c>
+      <c r="D92">
+        <v>0.142439748</v>
+      </c>
+      <c r="E92">
+        <v>0.125038919</v>
+      </c>
+      <c r="F92">
+        <v>7.0379759E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>0.22598277899999999</v>
+      </c>
+      <c r="B93">
+        <v>0.210308782</v>
+      </c>
+      <c r="C93">
+        <v>0.16887634400000001</v>
+      </c>
+      <c r="D93">
+        <v>0.13587354300000001</v>
+      </c>
+      <c r="E93">
+        <v>0.118127289</v>
+      </c>
+      <c r="F93">
+        <v>6.4568547000000004E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>0.224644388</v>
+      </c>
+      <c r="B94">
+        <v>0.20779056500000001</v>
+      </c>
+      <c r="C94">
+        <v>0.163836129</v>
+      </c>
+      <c r="D94">
+        <v>0.12968677300000001</v>
+      </c>
+      <c r="E94">
+        <v>0.111726731</v>
+      </c>
+      <c r="F94">
+        <v>5.9504343000000001E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>0.223312281</v>
+      </c>
+      <c r="B95">
+        <v>0.20529893599999999</v>
+      </c>
+      <c r="C95">
+        <v>0.158963467</v>
+      </c>
+      <c r="D95">
+        <v>0.123862049</v>
+      </c>
+      <c r="E95">
+        <v>0.105801087</v>
+      </c>
+      <c r="F95">
+        <v>5.5067416000000001E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>0.22198649200000001</v>
+      </c>
+      <c r="B96">
+        <v>0.20283405099999999</v>
+      </c>
+      <c r="C96">
+        <v>0.15425598300000001</v>
+      </c>
+      <c r="D96">
+        <v>0.118381281</v>
+      </c>
+      <c r="E96">
+        <v>0.100314933</v>
+      </c>
+      <c r="F96">
+        <v>5.1159411000000002E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>0.220667053</v>
+      </c>
+      <c r="B97">
+        <v>0.20039605199999999</v>
+      </c>
+      <c r="C97">
+        <v>0.14971087899999999</v>
+      </c>
+      <c r="D97">
+        <v>0.11322605600000001</v>
+      </c>
+      <c r="E97">
+        <v>9.5234156E-2</v>
+      </c>
+      <c r="F97">
+        <v>4.7699503999999997E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>0.219353996</v>
+      </c>
+      <c r="B98">
+        <v>0.19798505999999999</v>
+      </c>
+      <c r="C98">
+        <v>0.14532498699999999</v>
+      </c>
+      <c r="D98">
+        <v>0.108377957</v>
+      </c>
+      <c r="E98">
+        <v>9.0526348000000006E-2</v>
+      </c>
+      <c r="F98">
+        <v>4.4621133E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>0.218047353</v>
+      </c>
+      <c r="B99">
+        <v>0.19560118100000001</v>
+      </c>
+      <c r="C99">
+        <v>0.14109481500000001</v>
+      </c>
+      <c r="D99">
+        <v>0.103818825</v>
+      </c>
+      <c r="E99">
+        <v>8.6161041999999993E-2</v>
+      </c>
+      <c r="F99">
+        <v>4.1869297999999999E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>0.216747153</v>
+      </c>
+      <c r="B100">
+        <v>0.19324450300000001</v>
+      </c>
+      <c r="C100">
+        <v>0.13701660700000001</v>
+      </c>
+      <c r="D100">
+        <v>9.9530955000000004E-2</v>
+      </c>
+      <c r="E100">
+        <v>8.2109847E-2</v>
+      </c>
+      <c r="F100">
+        <v>3.9398365999999997E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>0.215453424</v>
+      </c>
+      <c r="B101">
+        <v>0.19091509400000001</v>
+      </c>
+      <c r="C101">
+        <v>0.133086383</v>
+      </c>
+      <c r="D101">
+        <v>9.5497257000000002E-2</v>
+      </c>
+      <c r="E101">
+        <v>7.8346474999999999E-2</v>
+      </c>
+      <c r="F101">
+        <v>3.7170306E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>0.214166196</v>
+      </c>
+      <c r="B102">
+        <v>0.188613008</v>
+      </c>
+      <c r="C102">
+        <v>0.129299989</v>
+      </c>
+      <c r="D102">
+        <v>9.1701353999999999E-2</v>
+      </c>
+      <c r="E102">
+        <v>7.4846722000000004E-2</v>
+      </c>
+      <c r="F102">
+        <v>3.5153263999999997E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>0.21288549400000001</v>
+      </c>
+      <c r="B103">
+        <v>0.18633828</v>
+      </c>
+      <c r="C103">
+        <v>0.125653139</v>
+      </c>
+      <c r="D103">
+        <v>8.8127663999999994E-2</v>
+      </c>
+      <c r="E103">
+        <v>7.1588387000000003E-2</v>
+      </c>
+      <c r="F103">
+        <v>3.3320435000000002E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>0.21161134300000001</v>
+      </c>
+      <c r="B104">
+        <v>0.18409092799999999</v>
+      </c>
+      <c r="C104">
+        <v>0.12214145699999999</v>
+      </c>
+      <c r="D104">
+        <v>8.4761436999999995E-2</v>
+      </c>
+      <c r="E104">
+        <v>6.8551179000000004E-2</v>
+      </c>
+      <c r="F104">
+        <v>3.1649147000000002E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>0.21034376900000001</v>
+      </c>
+      <c r="B105">
+        <v>0.181870954</v>
+      </c>
+      <c r="C105">
+        <v>0.118760506</v>
+      </c>
+      <c r="D105">
+        <v>8.1588779E-2</v>
+      </c>
+      <c r="E105">
+        <v>6.5716589000000006E-2</v>
+      </c>
+      <c r="F105">
+        <v>3.0120135999999999E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>0.20908279399999999</v>
+      </c>
+      <c r="B106">
+        <v>0.17967834499999999</v>
+      </c>
+      <c r="C106">
+        <v>0.11550582500000001</v>
+      </c>
+      <c r="D106">
+        <v>7.8596645000000007E-2</v>
+      </c>
+      <c r="E106">
+        <v>6.3067767999999996E-2</v>
+      </c>
+      <c r="F106">
+        <v>2.8716950000000002E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>0.207828441</v>
+      </c>
+      <c r="B107">
+        <v>0.17751307099999999</v>
+      </c>
+      <c r="C107">
+        <v>0.112372956</v>
+      </c>
+      <c r="D107">
+        <v>7.5772829E-2</v>
+      </c>
+      <c r="E107">
+        <v>6.0589394999999997E-2</v>
+      </c>
+      <c r="F107">
+        <v>2.7425478E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>0.20658073099999999</v>
+      </c>
+      <c r="B108">
+        <v>0.17537508600000001</v>
+      </c>
+      <c r="C108">
+        <v>0.10935747</v>
+      </c>
+      <c r="D108">
+        <v>7.3105940999999994E-2</v>
+      </c>
+      <c r="E108">
+        <v>5.8267547000000003E-2</v>
+      </c>
+      <c r="F108">
+        <v>2.6233560999999999E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>0.205339683</v>
+      </c>
+      <c r="B109">
+        <v>0.17326433099999999</v>
+      </c>
+      <c r="C109">
+        <v>0.106454985</v>
+      </c>
+      <c r="D109">
+        <v>7.0585368999999995E-2</v>
+      </c>
+      <c r="E109">
+        <v>5.6089579000000001E-2</v>
+      </c>
+      <c r="F109">
+        <v>2.5130679E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>0.20410531700000001</v>
+      </c>
+      <c r="B110">
+        <v>0.17118073</v>
+      </c>
+      <c r="C110">
+        <v>0.103661188</v>
+      </c>
+      <c r="D110">
+        <v>6.8201247000000007E-2</v>
+      </c>
+      <c r="E110">
+        <v>5.4044004999999999E-2</v>
+      </c>
+      <c r="F110">
+        <v>2.4107692E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>0.20287765099999999</v>
+      </c>
+      <c r="B111">
+        <v>0.169124195</v>
+      </c>
+      <c r="C111">
+        <v>0.100971847</v>
+      </c>
+      <c r="D111">
+        <v>6.5944410999999994E-2</v>
+      </c>
+      <c r="E111">
+        <v>5.2120392000000001E-2</v>
+      </c>
+      <c r="F111">
+        <v>2.3156626E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>0.20165670099999999</v>
+      </c>
+      <c r="B112">
+        <v>0.167094623</v>
+      </c>
+      <c r="C112">
+        <v>9.8382826000000007E-2</v>
+      </c>
+      <c r="D112">
+        <v>6.3806359000000007E-2</v>
+      </c>
+      <c r="E112">
+        <v>5.0309255999999997E-2</v>
+      </c>
+      <c r="F112">
+        <v>2.2270499999999999E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>0.200442483</v>
+      </c>
+      <c r="B113">
+        <v>0.16509189899999999</v>
+      </c>
+      <c r="C113">
+        <v>9.5890093999999995E-2</v>
+      </c>
+      <c r="D113">
+        <v>6.1779211000000001E-2</v>
+      </c>
+      <c r="E113">
+        <v>4.8601976999999998E-2</v>
+      </c>
+      <c r="F113">
+        <v>2.1443180999999999E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>0.19923500999999999</v>
+      </c>
+      <c r="B114">
+        <v>0.16311589400000001</v>
+      </c>
+      <c r="C114">
+        <v>9.3489734000000005E-2</v>
+      </c>
+      <c r="D114">
+        <v>5.9855661999999997E-2</v>
+      </c>
+      <c r="E114">
+        <v>4.6990707999999999E-2</v>
+      </c>
+      <c r="F114">
+        <v>2.0669257999999999E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>0.198034298</v>
+      </c>
+      <c r="B115">
+        <v>0.16116646900000001</v>
+      </c>
+      <c r="C115">
+        <v>9.1177947999999995E-2</v>
+      </c>
+      <c r="D115">
+        <v>5.8028945999999998E-2</v>
+      </c>
+      <c r="E115">
+        <v>4.5468304000000001E-2</v>
+      </c>
+      <c r="F115">
+        <v>1.9943948E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>0.19684035599999999</v>
+      </c>
+      <c r="B116">
+        <v>0.159243471</v>
+      </c>
+      <c r="C116">
+        <v>8.8951059999999998E-2</v>
+      </c>
+      <c r="D116">
+        <v>5.6292796999999999E-2</v>
+      </c>
+      <c r="E116">
+        <v>4.4028253000000003E-2</v>
+      </c>
+      <c r="F116">
+        <v>1.9263004E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>0.195653198</v>
+      </c>
+      <c r="B117">
+        <v>0.15734673699999999</v>
+      </c>
+      <c r="C117">
+        <v>8.6805523999999995E-2</v>
+      </c>
+      <c r="D117">
+        <v>5.4641410000000001E-2</v>
+      </c>
+      <c r="E117">
+        <v>4.2664611999999998E-2</v>
+      </c>
+      <c r="F117">
+        <v>1.8622646999999999E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>0.19447283300000001</v>
+      </c>
+      <c r="B118">
+        <v>0.15547609400000001</v>
+      </c>
+      <c r="C118">
+        <v>8.4737917999999995E-2</v>
+      </c>
+      <c r="D118">
+        <v>5.3069407999999998E-2</v>
+      </c>
+      <c r="E118">
+        <v>4.1371954000000002E-2</v>
+      </c>
+      <c r="F118">
+        <v>1.8019502E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>0.19329927</v>
+      </c>
+      <c r="B119">
+        <v>0.153631358</v>
+      </c>
+      <c r="C119">
+        <v>8.2744950999999997E-2</v>
+      </c>
+      <c r="D119">
+        <v>5.1571810000000003E-2</v>
+      </c>
+      <c r="E119">
+        <v>4.0145315000000001E-2</v>
+      </c>
+      <c r="F119">
+        <v>1.7450549999999999E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>0.192132516</v>
+      </c>
+      <c r="B120">
+        <v>0.15181233699999999</v>
+      </c>
+      <c r="C120">
+        <v>8.0823459E-2</v>
+      </c>
+      <c r="D120">
+        <v>5.0143997000000003E-2</v>
+      </c>
+      <c r="E120">
+        <v>3.8980154000000003E-2</v>
+      </c>
+      <c r="F120">
+        <v>1.691308E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>0.19097258</v>
+      </c>
+      <c r="B121">
+        <v>0.15001882899999999</v>
+      </c>
+      <c r="C121">
+        <v>7.8970404999999994E-2</v>
+      </c>
+      <c r="D121">
+        <v>4.8781686999999997E-2</v>
+      </c>
+      <c r="E121">
+        <v>3.7872307000000001E-2</v>
+      </c>
+      <c r="F121">
+        <v>1.6404653000000002E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>0.18981946499999999</v>
+      </c>
+      <c r="B122">
+        <v>0.148250623</v>
+      </c>
+      <c r="C122">
+        <v>7.7182874999999998E-2</v>
+      </c>
+      <c r="D122">
+        <v>4.7480908000000002E-2</v>
+      </c>
+      <c r="E122">
+        <v>3.6817954E-2</v>
+      </c>
+      <c r="F122">
+        <v>1.5923070000000001E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>0.188673178</v>
+      </c>
+      <c r="B123">
+        <v>0.14650750200000001</v>
+      </c>
+      <c r="C123">
+        <v>7.5458080999999996E-2</v>
+      </c>
+      <c r="D123">
+        <v>4.6237974000000001E-2</v>
+      </c>
+      <c r="E123">
+        <v>3.5813589E-2</v>
+      </c>
+      <c r="F123">
+        <v>1.5466341999999999E-2</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
